--- a/biology/Médecine/Jean-Charles_Chenu/Jean-Charles_Chenu.xlsx
+++ b/biology/Médecine/Jean-Charles_Chenu/Jean-Charles_Chenu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Charles Chenu est un médecin et un naturaliste français, né le 30 août 1808 à Metz et mort le 12 novembre 1879 à l’hôtel des Invalides à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études de médecine à Metz, puis à Strasbourg, avant de venir les terminer à Paris en 1825. Chenu embrasse alors une carrière militaire dans les services de santé. Il prend ainsi part en 1829 à la conquête de l'Algérie par la France, comme chirurgien des armées. Chenu obtient ensuite son titre de docteur à Strasbourg en 1833. Il se trouve dans le sud de la France lorsqu'une épidémie de choléra éclate. Il soigne alors le préfet de l'Aude, Gabriel Delessert, et se lie d'amitié avec lui. Chenu fait paraître en 1835 une étude sur cette maladie sous le titre de Rapport sur le choléra-morbus.
 C'est grâce à Benjamin Delessert qu'il obtient le poste de sous-inspecteur des eaux minérales de Passy. Chenu fera alors paraître plusieurs études sur l'intérêt médical des sources minéro-thermales. Delessert lui confie en outre la conservation de sa collection d'histoire naturelle, particulièrement riche en coquillage. Il fait paraître de 1842 à 1854 les Illustrations conchyliologiques ou Description et figures de toutes les coquilles connues vivantes et fossiles, classées suivant le système de Lamarck, etc.. Cet ouvrage sera suivi par les Leçons élémentaires d'histoire naturelle, comprenant un aperçu sur toute la zoologie et un Traité de conchyliologie en 1846.
@@ -546,7 +560,9 @@
           <t>Ses travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rapport sur le choléra-morbus, (1835)
 Illustrations conchyliologiques ou Description et figures de toutes les coquilles connues vivantes et fossiles, classées suivant le système de Lamarck, etc., (1842 - 1854)
